--- a/VersionRecords/Version 5.0.2.6 20161009/版本Bug和特性计划及评审表v5.0.2.6.xlsx
+++ b/VersionRecords/Version 5.0.2.6 20161009/版本Bug和特性计划及评审表v5.0.2.6.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
   <si>
     <t>No</t>
   </si>
@@ -169,6 +169,211 @@
   <si>
     <t>修正负责人</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源对应订单已欠款，未显示欠款图标，且无法通过''租客欠款''条件筛选出来</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐文瑞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李萌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+  </si>
+  <si>
+    <t>去除cat监控</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源实时同步(BS)、LTS、房东PC、房东APP、官网、租客APP、支付、微信服务窗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋伟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伙伴手机点击确认收款提示，实收金额大于账单金额，添加失败</t>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP</t>
+    <rPh sb="0" eb="1">
+      <t>fang'dong</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>sh</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>王辉</t>
+    <rPh sb="0" eb="1">
+      <t>wang'hui</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+    <rPh sb="0" eb="1">
+      <t>jie'bao'zu</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <rPh sb="0" eb="1">
+      <t>shi'c</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复房东app预约消息跳转白屏，推送预约push代码优化</t>
+  </si>
+  <si>
+    <t>蘑菇宝账单添加周期性账单，收取月份只可选择第一期</t>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <rPh sb="0" eb="1">
+      <t>fang'do</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>王祥毅</t>
+    <rPh sb="0" eb="1">
+      <t>w'x'y</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客端查看入住人名称修改</t>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <rPh sb="0" eb="1">
+      <t>c'b</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常合同未到期退房订单</t>
+    <rPh sb="0" eb="1">
+      <t>yi'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei'dao'qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tui'f</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ding'd</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>入账对账报表优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李敖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册明细查询条件城市控件无法使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -552,7 +757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,9 +919,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1226,7 +1428,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1313,41 +1515,91 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5">
-      <c r="A2" s="16"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="33">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="11">
+        <v>42652</v>
+      </c>
+      <c r="G2" s="11">
+        <v>42652</v>
+      </c>
+      <c r="H2" s="11">
+        <v>42652</v>
+      </c>
       <c r="I2" s="10"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="11">
+        <v>42652</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
       <c r="S2" s="13"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="16.5">
-      <c r="A3" s="16"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="10"/>
+    <row r="3" spans="1:20" ht="49.5">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="11">
+        <v>42651</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="11">
+        <v>42651</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="M3" s="12"/>
       <c r="N3" s="11"/>
       <c r="O3" s="12"/>
@@ -1356,106 +1608,228 @@
       <c r="R3" s="7"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="16.5">
-      <c r="A4" s="16"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="11">
+        <v>42651</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="11">
+        <v>42651</v>
+      </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="N4" s="11"/>
       <c r="O4" s="12"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="4"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="8"/>
     </row>
     <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5">
-      <c r="A5" s="16"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="11">
+        <v>42651</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="11">
+        <v>42651</v>
+      </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="N5" s="11"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
       <c r="S5" s="13"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="1:20" ht="16.5">
-      <c r="A6" s="16"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="12"/>
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="11">
+        <v>42651</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="11">
+        <v>42651</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:20" s="25" customFormat="1" ht="16.5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="11">
+        <v>42651</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="11">
+        <v>42651</v>
+      </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="N7" s="11"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="24"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="8"/>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5">
-      <c r="A8" s="16"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="11">
+        <v>42651</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="11">
+        <v>42651</v>
+      </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="N8" s="11"/>
       <c r="O8" s="12"/>
       <c r="P8" s="7"/>
@@ -1464,51 +1838,105 @@
       <c r="S8" s="13"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="1:20" s="57" customFormat="1" ht="16.5">
-      <c r="A9" s="16"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="56"/>
-    </row>
-    <row r="10" spans="1:20" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="56"/>
-    </row>
-    <row r="11" spans="1:20" s="57" customFormat="1" ht="17.25" customHeight="1">
+    <row r="9" spans="1:20" ht="16.5">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="11">
+        <v>42652</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="11">
+        <v>42652</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="11">
+        <v>42652</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" ht="16.5">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="11">
+        <v>42653</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="11">
+        <v>42652</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="11">
+        <v>42652</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" s="56" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="50"/>
       <c r="C11" s="51"/>
@@ -1524,13 +1952,13 @@
       <c r="M11" s="53"/>
       <c r="N11" s="52"/>
       <c r="O11" s="51"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="56"/>
-    </row>
-    <row r="12" spans="1:20" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="55"/>
+    </row>
+    <row r="12" spans="1:20" s="56" customFormat="1" ht="17.25" customHeight="1">
       <c r="A12" s="16"/>
       <c r="B12" s="50"/>
       <c r="C12" s="51"/>
@@ -1546,13 +1974,13 @@
       <c r="M12" s="53"/>
       <c r="N12" s="52"/>
       <c r="O12" s="51"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="56"/>
-    </row>
-    <row r="13" spans="1:20" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="55"/>
+    </row>
+    <row r="13" spans="1:20" s="56" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="16"/>
       <c r="B13" s="50"/>
       <c r="C13" s="51"/>
@@ -1568,13 +1996,13 @@
       <c r="M13" s="53"/>
       <c r="N13" s="52"/>
       <c r="O13" s="51"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="56"/>
-    </row>
-    <row r="14" spans="1:20" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="55"/>
+    </row>
+    <row r="14" spans="1:20" s="56" customFormat="1" ht="17.25" customHeight="1">
       <c r="A14" s="16"/>
       <c r="B14" s="50"/>
       <c r="C14" s="51"/>
@@ -1590,13 +2018,13 @@
       <c r="M14" s="53"/>
       <c r="N14" s="52"/>
       <c r="O14" s="51"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="56"/>
-    </row>
-    <row r="15" spans="1:20" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="55"/>
+    </row>
+    <row r="15" spans="1:20" s="56" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="16"/>
       <c r="B15" s="50"/>
       <c r="C15" s="51"/>
@@ -1612,17 +2040,17 @@
       <c r="M15" s="53"/>
       <c r="N15" s="52"/>
       <c r="O15" s="51"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="56"/>
-    </row>
-    <row r="16" spans="1:20" s="59" customFormat="1" ht="16.5">
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="55"/>
+    </row>
+    <row r="16" spans="1:20" s="58" customFormat="1" ht="16.5">
       <c r="A16" s="16"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
-      <c r="E16" s="60"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="52"/>
       <c r="G16" s="51"/>
       <c r="H16" s="52"/>
@@ -1633,7 +2061,7 @@
       <c r="M16" s="53"/>
       <c r="N16" s="52"/>
       <c r="O16" s="51"/>
-      <c r="P16" s="58"/>
+      <c r="P16" s="57"/>
     </row>
     <row r="17" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1">
       <c r="A17" s="16"/>
@@ -4468,8 +4896,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4489,178 +4920,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="81"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="80"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="83"/>
-    </row>
-    <row r="3" spans="1:9" s="64" customFormat="1" ht="16.5">
-      <c r="A3" s="61" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
+    </row>
+    <row r="3" spans="1:9" s="63" customFormat="1" ht="16.5">
+      <c r="A3" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="62" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="73"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4699,210 +5130,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="74" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="73"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
@@ -4926,17 +5357,17 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="70" customWidth="1"/>
-    <col min="3" max="3" width="7" style="70" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="70" customWidth="1"/>
-    <col min="5" max="5" width="35" style="70" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="70" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="71" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="69" customWidth="1"/>
+    <col min="3" max="3" width="7" style="69" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="69" customWidth="1"/>
+    <col min="5" max="5" width="35" style="69" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="69" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="70" customWidth="1"/>
     <col min="8" max="8" width="25.75" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="72" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="71" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="9" style="72" customWidth="1"/>
+    <col min="12" max="12" width="9" style="71" customWidth="1"/>
     <col min="13" max="13" width="17.75" customWidth="1"/>
     <col min="257" max="257" width="3.875" customWidth="1"/>
     <col min="258" max="258" width="10.125" customWidth="1"/>
@@ -5760,212 +6191,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="80"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
-    </row>
-    <row r="3" spans="1:13" s="64" customFormat="1" ht="16.5">
-      <c r="A3" s="61" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="82"/>
+    </row>
+    <row r="3" spans="1:13" s="63" customFormat="1" ht="16.5">
+      <c r="A3" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="63" t="s">
+      <c r="M3" s="62" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="64" customFormat="1" ht="16.5">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="67"/>
-    </row>
-    <row r="5" spans="1:13" s="64" customFormat="1" ht="16.5">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="67"/>
-    </row>
-    <row r="6" spans="1:13" s="64" customFormat="1" ht="16.5">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-    </row>
-    <row r="7" spans="1:13" s="64" customFormat="1" ht="16.5">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-    </row>
-    <row r="8" spans="1:13" s="64" customFormat="1" ht="16.5">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-    </row>
-    <row r="9" spans="1:13" s="64" customFormat="1" ht="16.5">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-    </row>
-    <row r="10" spans="1:13" s="64" customFormat="1" ht="16.5">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-    </row>
-    <row r="11" spans="1:13" s="64" customFormat="1" ht="16.5">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-    </row>
-    <row r="12" spans="1:13" s="64" customFormat="1" ht="16.5">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
+    <row r="4" spans="1:13" s="63" customFormat="1" ht="16.5">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="66"/>
+    </row>
+    <row r="5" spans="1:13" s="63" customFormat="1" ht="16.5">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="66"/>
+    </row>
+    <row r="6" spans="1:13" s="63" customFormat="1" ht="16.5">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+    </row>
+    <row r="7" spans="1:13" s="63" customFormat="1" ht="16.5">
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+    </row>
+    <row r="8" spans="1:13" s="63" customFormat="1" ht="16.5">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+    </row>
+    <row r="9" spans="1:13" s="63" customFormat="1" ht="16.5">
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+    </row>
+    <row r="10" spans="1:13" s="63" customFormat="1" ht="16.5">
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+    </row>
+    <row r="11" spans="1:13" s="63" customFormat="1" ht="16.5">
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+    </row>
+    <row r="12" spans="1:13" s="63" customFormat="1" ht="16.5">
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/VersionRecords/Version 5.0.2.6 20161009/版本Bug和特性计划及评审表v5.0.2.6.xlsx
+++ b/VersionRecords/Version 5.0.2.6 20161009/版本Bug和特性计划及评审表v5.0.2.6.xlsx
@@ -203,9 +203,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Fix Bug</t>
-  </si>
-  <si>
     <t>去除cat监控</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -336,10 +333,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>New Features</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -373,6 +366,14 @@
   </si>
   <si>
     <t>Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1428,7 +1429,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1523,7 +1524,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>46</v>
@@ -1570,13 +1571,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>47</v>
@@ -1592,13 +1593,13 @@
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="M3" s="12"/>
       <c r="N3" s="11"/>
@@ -1613,38 +1614,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="F4" s="11">
         <v>42651</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="11">
         <v>42651</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="12"/>
@@ -1659,38 +1660,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="F5" s="11">
         <v>42651</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="11">
         <v>42651</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="12"/>
@@ -1705,38 +1706,38 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="E6" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="11">
         <v>42651</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="11">
         <v>42651</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
@@ -1751,38 +1752,38 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="11">
         <v>42651</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="11">
         <v>42651</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="M7" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="N7" s="11"/>
       <c r="O7" s="12"/>
@@ -1797,38 +1798,38 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="11">
         <v>42651</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="11">
         <v>42651</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="L8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="M8" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="N8" s="11"/>
       <c r="O8" s="12"/>
@@ -1843,44 +1844,44 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="F9" s="11">
         <v>42652</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H9" s="11">
         <v>42652</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="M9" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="N9" s="11">
         <v>42652</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -1892,44 +1893,44 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F10" s="11">
         <v>42653</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H10" s="11">
         <v>42652</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="M10" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="N10" s="11">
         <v>42652</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>

--- a/VersionRecords/Version 5.0.2.6 20161009/版本Bug和特性计划及评审表v5.0.2.6.xlsx
+++ b/VersionRecords/Version 5.0.2.6 20161009/版本Bug和特性计划及评审表v5.0.2.6.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="89">
   <si>
     <t>No</t>
   </si>
@@ -374,6 +374,14 @@
   </si>
   <si>
     <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1429,7 +1437,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1601,9 +1609,15 @@
       <c r="L3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
+      <c r="M3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" s="11">
+        <v>42652</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1647,8 +1661,12 @@
       <c r="M4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
+      <c r="N4" s="11">
+        <v>42653</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -1693,8 +1711,12 @@
       <c r="M5" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
+      <c r="N5" s="11">
+        <v>42654</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -1739,8 +1761,12 @@
       <c r="M6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="12"/>
+      <c r="N6" s="11">
+        <v>42655</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -1785,8 +1811,12 @@
       <c r="M7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="12"/>
+      <c r="N7" s="11">
+        <v>42656</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -1831,8 +1861,12 @@
       <c r="M8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="12"/>
+      <c r="N8" s="11">
+        <v>42657</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>

--- a/VersionRecords/Version 5.0.2.6 20161009/版本Bug和特性计划及评审表v5.0.2.6.xlsx
+++ b/VersionRecords/Version 5.0.2.6 20161009/版本Bug和特性计划及评审表v5.0.2.6.xlsx
@@ -1437,7 +1437,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
